--- a/biology/Médecine/1108_en_santé_et_médecine/1108_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1108_en_santé_et_médecine/1108_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1108_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1108_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1108 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1108_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1108_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Gilbert Ier, vicomte de Millau, d'un hôpital « pour le soutien des pauvres », qui donnera son nom à L'Hospitalet-du-Larzac[1].
-Fondation à Péronne, en Santerre, d'une maladrerie « située à l'extrémité nord du village de Sainte-Radegonde[2] ».
-« Gautier Mal-Oiseau, chanoine de Saint-Laurent-en-Lyons, compagnon de Hugues de Saint-Jovinien, fonde une maladrerie près de la ville de Bolbec », en Normandie[3].
-Fondation d'une maladrerie à Chatham, dans le Kent[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Gilbert Ier, vicomte de Millau, d'un hôpital « pour le soutien des pauvres », qui donnera son nom à L'Hospitalet-du-Larzac.
+Fondation à Péronne, en Santerre, d'une maladrerie « située à l'extrémité nord du village de Sainte-Radegonde ».
+« Gautier Mal-Oiseau, chanoine de Saint-Laurent-en-Lyons, compagnon de Hugues de Saint-Jovinien, fonde une maladrerie près de la ville de Bolbec », en Normandie.
+Fondation d'une maladrerie à Chatham, dans le Kent.
 Vers 1108 :
-« L'évêque Étienne institue dans sa ville de Huesca une domus elemosinaria [« maison d'aumône »] « pour l'entretien des pauvres[5] » ».
-Ganna, dame de Dinan, épouse d'Olivier Ier, fait construire dans le cimetière de l'église de Saint-Malo un hôpital qui sera transféré à la porte de Brest, et réuni à l'hôpital général à sa création en 1685[6].</t>
+« L'évêque Étienne institue dans sa ville de Huesca une domus elemosinaria [« maison d'aumône »] « pour l'entretien des pauvres » ».
+Ganna, dame de Dinan, épouse d'Olivier Ier, fait construire dans le cimetière de l'église de Saint-Malo un hôpital qui sera transféré à la porte de Brest, et réuni à l'hôpital général à sa création en 1685.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1108_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1108_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une charte de Louis VI le Gros « conseille l'isolement des lépreux[7] ».
-Entrée en éruption du volcan Asama, au Japon, qui serait à l'origine de la grave famine qui a sévi les années suivantes en Europe occidentale (Irlande, Allemagne, France du Nord) et qu'Orderic Vital a documentée en France dans son Historia ecclesiastica[8],[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une charte de Louis VI le Gros « conseille l'isolement des lépreux ».
+Entrée en éruption du volcan Asama, au Japon, qui serait à l'origine de la grave famine qui a sévi les années suivantes en Europe occidentale (Irlande, Allemagne, France du Nord) et qu'Orderic Vital a documentée en France dans son Historia ecclesiastica,.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1108_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1108_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'empereur de Chine Huizong approuve la deuxième édition, due à l'archiatre Ai Tcheng, du Jingshi Zhenglei Beiji Bencao[10] (« Matière médicale d’urgence, classifiée et annotée, basée sur les ouvrages classiques et historiques »), importante encyclopédie publiée en 1082 par le médecin Tang Shenwei[11],[12].
-1107-1108 : le médecin chinois Zhu Gong achève le Leizheng huoren shu (« Traité des cas classifiés en vue de la sauvegarde de la vie[13],[14] ».</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'empereur de Chine Huizong approuve la deuxième édition, due à l'archiatre Ai Tcheng, du Jingshi Zhenglei Beiji Bencao (« Matière médicale d’urgence, classifiée et annotée, basée sur les ouvrages classiques et historiques »), importante encyclopédie publiée en 1082 par le médecin Tang Shenwei,.
+1107-1108 : le médecin chinois Zhu Gong achève le Leizheng huoren shu (« Traité des cas classifiés en vue de la sauvegarde de la vie, ».</t>
         </is>
       </c>
     </row>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1108_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1108_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1108-1126 : fl. Guy, « médecin, cité dans une charte de l'abbaye de Montier-en-Der », en Champagne[15].
-1108-1141 : fl. Salomon, médecin, probablement d'origine juive et, selon Chéreau dans le Dictionnaire de Dechambre, au service de Philippe Ier, roi de France[16],[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1108-1126 : fl. Guy, « médecin, cité dans une charte de l'abbaye de Montier-en-Der », en Champagne.
+1108-1141 : fl. Salomon, médecin, probablement d'origine juive et, selon Chéreau dans le Dictionnaire de Dechambre, au service de Philippe Ier, roi de France,.</t>
         </is>
       </c>
     </row>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1108_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1108_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sandrine Biyi fait naître « à Jérusalem en 1108[17] » Brunissende des Aygues, personnage principal de son roman historique La Dame de La Sauve, qui n'est pas seulement « miresse à ses heures perdues », mais médecin personnel de Guillaume IX, duc d'Aquitaine[18].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sandrine Biyi fait naître « à Jérusalem en 1108 » Brunissende des Aygues, personnage principal de son roman historique La Dame de La Sauve, qui n'est pas seulement « miresse à ses heures perdues », mais médecin personnel de Guillaume IX, duc d'Aquitaine.</t>
         </is>
       </c>
     </row>
